--- a/1.2 FO-UTEZ-VIN-02 Rev. 06 Registro del proyecto de estadías y Reporte de asesorías 2024-Noe.xlsx
+++ b/1.2 FO-UTEZ-VIN-02 Rev. 06 Registro del proyecto de estadías y Reporte de asesorías 2024-Noe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDS\Downloads\estadias\Estadias-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1344,6 +1344,216 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1364,249 +1574,83 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1615,6 +1659,167 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1622,14 +1827,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1640,203 +1837,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2562,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -2588,70 +2588,70 @@
   <sheetData>
     <row r="1" spans="2:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
     </row>
     <row r="5" spans="2:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="132"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
       <c r="O5" s="34" t="s">
         <v>37</v>
       </c>
@@ -2660,48 +2660,48 @@
       <c r="B6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
       <c r="O6" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="80" t="s">
+      <c r="K7" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="83"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="145"/>
       <c r="O7" s="34" t="s">
         <v>43</v>
       </c>
@@ -2710,23 +2710,23 @@
       <c r="B8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
       <c r="J8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="83"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="145"/>
       <c r="O8" s="34" t="s">
         <v>39</v>
       </c>
@@ -2736,18 +2736,18 @@
         <v>17</v>
       </c>
       <c r="C9" s="60"/>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="101"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
       <c r="O9" s="34" t="s">
         <v>40</v>
       </c>
@@ -2758,17 +2758,17 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
-      <c r="E10" s="133" t="s">
+      <c r="E10" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="134"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="109"/>
       <c r="O10" s="34" t="s">
         <v>41</v>
       </c>
@@ -2779,42 +2779,42 @@
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
-      <c r="E11" s="145" t="s">
+      <c r="E11" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="157"/>
       <c r="O11" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="135">
+      <c r="C12" s="104"/>
+      <c r="D12" s="110">
         <v>45300</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="139">
+      <c r="I12" s="113">
         <v>45403</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="140"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="114"/>
       <c r="O12" s="37"/>
     </row>
     <row r="13" spans="2:18" s="43" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2822,12 +2822,12 @@
         <v>36</v>
       </c>
       <c r="C13" s="65"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -2844,15 +2844,15 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="46"/>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="110"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="47"/>
       <c r="O14" s="37"/>
       <c r="P14" s="47"/>
@@ -2860,22 +2860,22 @@
       <c r="R14" s="37"/>
     </row>
     <row r="15" spans="2:18" s="43" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="205" t="s">
+      <c r="B15" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="206"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="68" t="s">
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="133"/>
       <c r="N15" s="47"/>
       <c r="O15" s="37"/>
       <c r="P15" s="47"/>
@@ -2890,13 +2890,13 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="133"/>
       <c r="N16" s="47"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -2904,20 +2904,20 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="2:18" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -2925,18 +2925,18 @@
       <c r="R17" s="37"/>
     </row>
     <row r="18" spans="2:18" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -2944,18 +2944,18 @@
       <c r="R18" s="37"/>
     </row>
     <row r="19" spans="2:18" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="208"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="70"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="133"/>
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -2963,18 +2963,18 @@
       <c r="R19" s="37"/>
     </row>
     <row r="20" spans="2:18" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="211"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="136"/>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -2989,17 +2989,17 @@
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="115" t="s">
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="116"/>
+      <c r="M21" s="90"/>
       <c r="N21" s="37"/>
       <c r="O21" s="49"/>
       <c r="P21" s="37"/>
@@ -3007,20 +3007,20 @@
       <c r="R21" s="37"/>
     </row>
     <row r="22" spans="2:18" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="118"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="92"/>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -3028,24 +3028,24 @@
       <c r="R22" s="37"/>
     </row>
     <row r="23" spans="2:18" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="92" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="75" t="s">
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="76"/>
+      <c r="M23" s="138"/>
       <c r="N23" s="37"/>
       <c r="O23" s="49"/>
       <c r="P23" s="37"/>
@@ -3053,20 +3053,20 @@
       <c r="R23" s="37"/>
     </row>
     <row r="24" spans="2:18" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="70"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="133"/>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -3074,20 +3074,20 @@
       <c r="R24" s="37"/>
     </row>
     <row r="25" spans="2:18" s="43" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="142" t="s">
+      <c r="B25" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="70"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="133"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
@@ -3102,13 +3102,13 @@
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="63"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="70"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="133"/>
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
@@ -3116,20 +3116,20 @@
       <c r="R26" s="37"/>
     </row>
     <row r="27" spans="2:18" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="70"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="133"/>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
@@ -3137,20 +3137,20 @@
       <c r="R27" s="37"/>
     </row>
     <row r="28" spans="2:18" s="43" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="70"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="133"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
@@ -3158,20 +3158,20 @@
       <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" s="43" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="70"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="133"/>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
@@ -3179,18 +3179,18 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="2:18" s="43" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="68"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="70"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="133"/>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="50"/>
@@ -3198,18 +3198,18 @@
       <c r="R30" s="50"/>
     </row>
     <row r="31" spans="2:18" s="43" customFormat="1" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="79"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="141"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
@@ -3230,78 +3230,78 @@
       <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="51"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
     </row>
     <row r="34" spans="1:13" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="86" t="str">
+      <c r="B34" s="117" t="str">
         <f>E10</f>
         <v>Dra. Martha Fabiola Wences Díaz</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="91" t="str">
+      <c r="G34" s="122" t="str">
         <f>D5</f>
         <v>Noe Martinez Flores</v>
       </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="86" t="str">
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="117" t="str">
         <f>E11</f>
         <v>I.T.I Erick Mireles Merchant</v>
       </c>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
     </row>
     <row r="35" spans="1:13" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="35"/>
-      <c r="G35" s="99" t="s">
+      <c r="G35" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="98" t="s">
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
     </row>
     <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="141" t="s">
+      <c r="A36" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="141"/>
-      <c r="C36" s="141"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="141"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="53"/>
@@ -3418,12 +3418,20 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G15:M20"/>
+    <mergeCell ref="L23:M31"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F20"/>
     <mergeCell ref="L2:M4"/>
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="G21:K22"/>
@@ -3440,6 +3448,12 @@
     <mergeCell ref="D9:M9"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="K34:M34"/>
     <mergeCell ref="B31:F31"/>
@@ -3450,20 +3464,6 @@
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G15:M20"/>
-    <mergeCell ref="L23:M31"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:F20"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3507,50 +3507,50 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="187"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="190"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="193"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="168"/>
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
     </row>
@@ -3560,65 +3560,65 @@
         <v xml:space="preserve">Nombre del estudiante: </v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="194" t="str">
+      <c r="D5" s="169" t="str">
         <f>'Asignación de Proyecto'!D5:M5</f>
         <v>Noe Martinez Flores</v>
       </c>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="195"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="170"/>
     </row>
     <row r="6" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="183" t="str">
+      <c r="C6" s="158" t="str">
         <f>'Asignación de Proyecto'!C6:I6</f>
         <v>24va</v>
       </c>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="196" t="str">
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="171" t="str">
         <f>'[1]Asignación de Proyecto'!J6</f>
         <v xml:space="preserve">      Matrícula:</v>
       </c>
-      <c r="K6" s="196"/>
-      <c r="L6" s="197" t="str">
+      <c r="K6" s="171"/>
+      <c r="L6" s="172" t="str">
         <f>'Asignación de Proyecto'!K6</f>
         <v>I20203TN035</v>
       </c>
-      <c r="M6" s="198"/>
+      <c r="M6" s="173"/>
     </row>
     <row r="7" spans="2:13" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="str">
         <f>'[1]Asignación de Proyecto'!B7:C7</f>
         <v xml:space="preserve">Nivel académico: </v>
       </c>
-      <c r="C7" s="183" t="str">
+      <c r="C7" s="158" t="str">
         <f>'Asignación de Proyecto'!D7</f>
         <v>Ingeniería</v>
       </c>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="196" t="str">
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="171" t="str">
         <f>'[1]Asignación de Proyecto'!J7:K7</f>
         <v xml:space="preserve">Grado y Grupo: </v>
       </c>
-      <c r="K7" s="196"/>
+      <c r="K7" s="171"/>
       <c r="L7" s="13" t="s">
         <v>52</v>
       </c>
@@ -3629,26 +3629,26 @@
         <f>'[1]Asignación de Proyecto'!B8</f>
         <v xml:space="preserve">Carrera: </v>
       </c>
-      <c r="C8" s="183" t="str">
+      <c r="C8" s="158" t="str">
         <f xml:space="preserve"> 'Asignación de Proyecto'!C8:I8</f>
         <v>Ingeniería en Desarrollo y Gestión de Software</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="15" t="str">
         <f>'[1]Asignación de Proyecto'!J8</f>
         <v xml:space="preserve">     Área:</v>
       </c>
-      <c r="L8" s="183" t="str">
+      <c r="L8" s="158" t="str">
         <f>'Asignación de Proyecto'!K8</f>
         <v>Sin área</v>
       </c>
-      <c r="M8" s="184"/>
+      <c r="M8" s="159"/>
     </row>
     <row r="9" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="str">
@@ -3656,19 +3656,19 @@
         <v>Empresa o Institución:</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="168" t="str">
+      <c r="D9" s="174" t="str">
         <f>'Asignación de Proyecto'!D9:M9</f>
         <v>Universidad Tecnológica de Emiliano Zapata del Estado de Morelos</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="169"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="175"/>
     </row>
     <row r="10" spans="2:13" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="str">
@@ -3677,17 +3677,17 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="183" t="s">
+      <c r="E10" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="184"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="159"/>
     </row>
     <row r="11" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
@@ -3696,128 +3696,128 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="168" t="str">
+      <c r="E11" s="174" t="str">
         <f>'Asignación de Proyecto'!E11:M11</f>
         <v>I.T.I Erick Mireles Merchant</v>
       </c>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="169"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="175"/>
     </row>
     <row r="12" spans="2:13" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="171"/>
-      <c r="D12" s="174" t="str">
+      <c r="C12" s="186"/>
+      <c r="D12" s="189" t="str">
         <f>'Asignación de Proyecto'!B15</f>
         <v>Modulo Evaluación Docente para el Sistema Integral de Servicios Académicos de la Universidad de Ciencias Jurídicas de Morelos S.C.</v>
       </c>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="175"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="190"/>
     </row>
     <row r="13" spans="2:13" s="10" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="192"/>
     </row>
     <row r="14" spans="2:13" s="10" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="180">
+      <c r="C14" s="194"/>
+      <c r="D14" s="195">
         <f>'Asignación de Proyecto'!D12:F12</f>
         <v>45300</v>
       </c>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
       <c r="H14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="181">
+      <c r="I14" s="196">
         <f>'Asignación de Proyecto'!I12:M12</f>
         <v>45403</v>
       </c>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="182"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="197"/>
     </row>
     <row r="15" spans="2:13" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="162" t="s">
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="163"/>
-      <c r="I15" s="156" t="s">
+      <c r="H15" s="177"/>
+      <c r="I15" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="162" t="s">
+      <c r="J15" s="203"/>
+      <c r="K15" s="204"/>
+      <c r="L15" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="163"/>
+      <c r="M15" s="177"/>
     </row>
     <row r="16" spans="2:13" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="155"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="164"/>
-      <c r="M16" s="165"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="179"/>
     </row>
     <row r="17" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="66">
         <v>45308</v>
       </c>
-      <c r="C17" s="201" t="s">
+      <c r="C17" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="166" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="167"/>
+      <c r="H17" s="184"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
@@ -3828,16 +3828,16 @@
       <c r="B18" s="67">
         <v>45316</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="198" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="149" t="s">
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="150"/>
+      <c r="H18" s="199"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
@@ -3848,16 +3848,16 @@
       <c r="B19" s="67">
         <v>45338</v>
       </c>
-      <c r="C19" s="149" t="s">
+      <c r="C19" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="149" t="s">
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="150"/>
+      <c r="H19" s="199"/>
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
       <c r="K19" s="26"/>
@@ -3868,16 +3868,16 @@
       <c r="B20" s="67">
         <v>45351</v>
       </c>
-      <c r="C20" s="149" t="s">
+      <c r="C20" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="149" t="s">
+      <c r="D20" s="208"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="150"/>
+      <c r="H20" s="199"/>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="26"/>
@@ -3885,13 +3885,13 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="199"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="150"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="199"/>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
       <c r="K21" s="26"/>
@@ -3899,13 +3899,13 @@
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="199"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="150"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="199"/>
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="26"/>
@@ -3913,13 +3913,13 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="199"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="150"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="199"/>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
@@ -3927,13 +3927,13 @@
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="199"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="150"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="199"/>
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="26"/>
@@ -3941,13 +3941,13 @@
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="199"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="150"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="199"/>
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="26"/>
@@ -3955,13 +3955,13 @@
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="199"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="150"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="199"/>
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
       <c r="K26" s="26"/>
@@ -3969,13 +3969,13 @@
       <c r="M26" s="27"/>
     </row>
     <row r="27" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="199"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="150"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="199"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="26"/>
@@ -3983,13 +3983,13 @@
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="200"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="152"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="212"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
       <c r="K28" s="30"/>
@@ -4033,38 +4033,69 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="153" t="str">
+      <c r="C31" s="213" t="str">
         <f>'Asignación de Proyecto'!K34</f>
         <v>I.T.I Erick Mireles Merchant</v>
       </c>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="I31" s="147" t="s">
+      <c r="D31" s="213"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="213"/>
+      <c r="I31" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
     </row>
     <row r="32" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="I32" s="148" t="s">
+      <c r="D32" s="210"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="I32" s="210" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="210"/>
     </row>
     <row r="33" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:M14"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -4078,37 +4109,6 @@
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="D9:M9"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>

--- a/1.2 FO-UTEZ-VIN-02 Rev. 06 Registro del proyecto de estadías y Reporte de asesorías 2024-Noe.xlsx
+++ b/1.2 FO-UTEZ-VIN-02 Rev. 06 Registro del proyecto de estadías y Reporte de asesorías 2024-Noe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Asignación de Proyecto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Fecha de Inicio:</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>3.- Implementación del marco DMS</t>
+  </si>
+  <si>
+    <t>Revisión para validar el capítulo tres con el asesor  universitario</t>
+  </si>
+  <si>
+    <t>Se requiere modificar el orden de la sección de planeación</t>
+  </si>
+  <si>
+    <t>Revisión del capítulol cuatro con el asesor universitario y correciones del capítulo tres</t>
+  </si>
+  <si>
+    <t>Se requiere anexar minuta de liberación del módulo en el capítulo cuatro</t>
+  </si>
+  <si>
+    <t>Revisión de correción del capítulo cuatro</t>
+  </si>
+  <si>
+    <t>Revisión Lista de verificación del reporte de estadías</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <protection locked="0"/>
@@ -1352,6 +1370,249 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1361,150 +1622,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1554,110 +1677,136 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1707,136 +1856,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2562,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -2588,70 +2618,70 @@
   <sheetData>
     <row r="1" spans="2:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="2:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="133"/>
       <c r="O5" s="34" t="s">
         <v>37</v>
       </c>
@@ -2660,48 +2690,48 @@
       <c r="B6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="143" t="s">
+      <c r="K6" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="144"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="O6" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="142" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="142" t="s">
+      <c r="K7" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="145"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="77"/>
       <c r="O7" s="34" t="s">
         <v>43</v>
       </c>
@@ -2710,23 +2740,23 @@
       <c r="B8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="142" t="s">
+      <c r="K8" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="145"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="77"/>
       <c r="O8" s="34" t="s">
         <v>39</v>
       </c>
@@ -2736,18 +2766,18 @@
         <v>17</v>
       </c>
       <c r="C9" s="60"/>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
       <c r="O9" s="34" t="s">
         <v>40</v>
       </c>
@@ -2758,17 +2788,17 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="109"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="135"/>
       <c r="O10" s="34" t="s">
         <v>41</v>
       </c>
@@ -2779,42 +2809,42 @@
       </c>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
-      <c r="E11" s="156" t="s">
+      <c r="E11" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="157"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
       <c r="O11" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="110">
+      <c r="C12" s="73"/>
+      <c r="D12" s="136">
         <v>45300</v>
       </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="61" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="113">
+      <c r="I12" s="137">
         <v>45403</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="114"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="138"/>
       <c r="O12" s="37"/>
     </row>
     <row r="13" spans="2:18" s="43" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2822,12 +2852,12 @@
         <v>36</v>
       </c>
       <c r="C13" s="65"/>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -2844,15 +2874,15 @@
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="46"/>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="47"/>
       <c r="O14" s="37"/>
       <c r="P14" s="47"/>
@@ -2860,22 +2890,22 @@
       <c r="R14" s="37"/>
     </row>
     <row r="15" spans="2:18" s="43" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="131" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="133"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="47"/>
       <c r="O15" s="37"/>
       <c r="P15" s="47"/>
@@ -2890,13 +2920,13 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="133"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="47"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
@@ -2904,20 +2934,20 @@
       <c r="R16" s="37"/>
     </row>
     <row r="17" spans="2:18" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="133"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -2925,18 +2955,18 @@
       <c r="R17" s="37"/>
     </row>
     <row r="18" spans="2:18" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="150"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="133"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
@@ -2944,18 +2974,18 @@
       <c r="R18" s="37"/>
     </row>
     <row r="19" spans="2:18" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="150"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
@@ -2963,18 +2993,18 @@
       <c r="R19" s="37"/>
     </row>
     <row r="20" spans="2:18" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="136"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="91"/>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
@@ -2989,17 +3019,17 @@
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="89" t="s">
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="90"/>
+      <c r="M21" s="119"/>
       <c r="N21" s="37"/>
       <c r="O21" s="49"/>
       <c r="P21" s="37"/>
@@ -3007,20 +3037,20 @@
       <c r="R21" s="37"/>
     </row>
     <row r="22" spans="2:18" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="92"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="121"/>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
@@ -3028,24 +3058,24 @@
       <c r="R22" s="37"/>
     </row>
     <row r="23" spans="2:18" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="123" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="137" t="s">
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="138"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="37"/>
       <c r="O23" s="49"/>
       <c r="P23" s="37"/>
@@ -3053,20 +3083,20 @@
       <c r="R23" s="37"/>
     </row>
     <row r="24" spans="2:18" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="133"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
@@ -3074,20 +3104,20 @@
       <c r="R24" s="37"/>
     </row>
     <row r="25" spans="2:18" s="43" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="133"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="87"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
@@ -3102,13 +3132,13 @@
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="63"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="133"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="87"/>
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
@@ -3116,20 +3146,20 @@
       <c r="R26" s="37"/>
     </row>
     <row r="27" spans="2:18" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="133"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
@@ -3137,20 +3167,20 @@
       <c r="R27" s="37"/>
     </row>
     <row r="28" spans="2:18" s="43" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="133"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
@@ -3158,20 +3188,20 @@
       <c r="R28" s="37"/>
     </row>
     <row r="29" spans="2:18" s="43" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="133"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
@@ -3179,18 +3209,18 @@
       <c r="R29" s="37"/>
     </row>
     <row r="30" spans="2:18" s="43" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="131"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="133"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="87"/>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="50"/>
@@ -3198,18 +3228,18 @@
       <c r="R30" s="50"/>
     </row>
     <row r="31" spans="2:18" s="43" customFormat="1" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="118"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="141"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="96"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
@@ -3230,78 +3260,78 @@
       <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:13" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
       <c r="F33" s="51"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="121"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="1:13" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="117" t="str">
+      <c r="B34" s="79" t="str">
         <f>E10</f>
         <v>Dra. Martha Fabiola Wences Díaz</v>
       </c>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="122" t="str">
+      <c r="G34" s="149" t="str">
         <f>D5</f>
         <v>Noe Martinez Flores</v>
       </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="117" t="str">
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="79" t="str">
         <f>E11</f>
         <v>I.T.I Erick Mireles Merchant</v>
       </c>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
     </row>
     <row r="35" spans="1:13" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
       <c r="F35" s="35"/>
-      <c r="G35" s="130" t="s">
+      <c r="G35" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="129" t="s">
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
     </row>
     <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="53"/>
@@ -3418,20 +3448,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G15:M20"/>
-    <mergeCell ref="L23:M31"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:F20"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G23:K31"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:M33"/>
     <mergeCell ref="L2:M4"/>
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="G21:K22"/>
@@ -3448,22 +3480,20 @@
     <mergeCell ref="D9:M9"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G23:K31"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G15:M20"/>
+    <mergeCell ref="L23:M31"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F20"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3483,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A14" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3507,50 +3537,50 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="202"/>
       <c r="L2" s="2"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205"/>
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="208"/>
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
     </row>
@@ -3560,65 +3590,65 @@
         <v xml:space="preserve">Nombre del estudiante: </v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="169" t="str">
+      <c r="D5" s="209" t="str">
         <f>'Asignación de Proyecto'!D5:M5</f>
         <v>Noe Martinez Flores</v>
       </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="170"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="209"/>
+      <c r="K5" s="209"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="210"/>
     </row>
     <row r="6" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="158" t="str">
+      <c r="C6" s="198" t="str">
         <f>'Asignación de Proyecto'!C6:I6</f>
         <v>24va</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="171" t="str">
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="211" t="str">
         <f>'[1]Asignación de Proyecto'!J6</f>
         <v xml:space="preserve">      Matrícula:</v>
       </c>
-      <c r="K6" s="171"/>
-      <c r="L6" s="172" t="str">
+      <c r="K6" s="211"/>
+      <c r="L6" s="212" t="str">
         <f>'Asignación de Proyecto'!K6</f>
         <v>I20203TN035</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="213"/>
     </row>
     <row r="7" spans="2:13" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="str">
         <f>'[1]Asignación de Proyecto'!B7:C7</f>
         <v xml:space="preserve">Nivel académico: </v>
       </c>
-      <c r="C7" s="158" t="str">
+      <c r="C7" s="198" t="str">
         <f>'Asignación de Proyecto'!D7</f>
         <v>Ingeniería</v>
       </c>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="171" t="str">
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="211" t="str">
         <f>'[1]Asignación de Proyecto'!J7:K7</f>
         <v xml:space="preserve">Grado y Grupo: </v>
       </c>
-      <c r="K7" s="171"/>
+      <c r="K7" s="211"/>
       <c r="L7" s="13" t="s">
         <v>52</v>
       </c>
@@ -3629,26 +3659,26 @@
         <f>'[1]Asignación de Proyecto'!B8</f>
         <v xml:space="preserve">Carrera: </v>
       </c>
-      <c r="C8" s="158" t="str">
+      <c r="C8" s="198" t="str">
         <f xml:space="preserve"> 'Asignación de Proyecto'!C8:I8</f>
         <v>Ingeniería en Desarrollo y Gestión de Software</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
       <c r="K8" s="15" t="str">
         <f>'[1]Asignación de Proyecto'!J8</f>
         <v xml:space="preserve">     Área:</v>
       </c>
-      <c r="L8" s="158" t="str">
+      <c r="L8" s="198" t="str">
         <f>'Asignación de Proyecto'!K8</f>
         <v>Sin área</v>
       </c>
-      <c r="M8" s="159"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="str">
@@ -3656,19 +3686,19 @@
         <v>Empresa o Institución:</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="174" t="str">
+      <c r="D9" s="183" t="str">
         <f>'Asignación de Proyecto'!D9:M9</f>
         <v>Universidad Tecnológica de Emiliano Zapata del Estado de Morelos</v>
       </c>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="175"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="184"/>
     </row>
     <row r="10" spans="2:13" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="str">
@@ -3677,17 +3707,17 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="158" t="s">
+      <c r="E10" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="159"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="199"/>
     </row>
     <row r="11" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
@@ -3696,18 +3726,18 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="174" t="str">
+      <c r="E11" s="183" t="str">
         <f>'Asignación de Proyecto'!E11:M11</f>
         <v>I.T.I Erick Mireles Merchant</v>
       </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
-      <c r="M11" s="175"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="184"/>
     </row>
     <row r="12" spans="2:13" s="10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="185" t="s">
@@ -3767,57 +3797,57 @@
       <c r="M14" s="197"/>
     </row>
     <row r="15" spans="2:13" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="202" t="s">
+      <c r="C15" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="176" t="s">
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="177"/>
-      <c r="I15" s="202" t="s">
+      <c r="H15" s="174"/>
+      <c r="I15" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="203"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="176" t="s">
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="177"/>
+      <c r="M15" s="174"/>
     </row>
     <row r="16" spans="2:13" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="201"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="179"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="176"/>
     </row>
     <row r="17" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="66">
         <v>45308</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="183" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="184"/>
+      <c r="H17" s="182"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
@@ -3828,16 +3858,16 @@
       <c r="B18" s="67">
         <v>45316</v>
       </c>
-      <c r="C18" s="198" t="s">
+      <c r="C18" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="198" t="s">
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="199"/>
+      <c r="H18" s="161"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="26"/>
@@ -3848,16 +3878,16 @@
       <c r="B19" s="67">
         <v>45338</v>
       </c>
-      <c r="C19" s="198" t="s">
+      <c r="C19" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="198" t="s">
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="199"/>
+      <c r="H19" s="161"/>
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
       <c r="K19" s="26"/>
@@ -3868,16 +3898,16 @@
       <c r="B20" s="67">
         <v>45351</v>
       </c>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="208"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="198" t="s">
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="199"/>
+      <c r="H20" s="161"/>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="26"/>
@@ -3885,41 +3915,63 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="68"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
+      <c r="B21" s="67">
+        <v>45384</v>
+      </c>
+      <c r="C21" s="214" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="161"/>
+      <c r="I21" s="214" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="215"/>
+      <c r="K21" s="216"/>
       <c r="L21" s="25"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="68"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
+      <c r="B22" s="67">
+        <v>45394</v>
+      </c>
+      <c r="C22" s="214" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="161"/>
+      <c r="I22" s="214" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="215"/>
+      <c r="K22" s="216"/>
       <c r="L22" s="25"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="68"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="199"/>
+      <c r="B23" s="67">
+        <v>45397</v>
+      </c>
+      <c r="C23" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="161"/>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
@@ -3927,13 +3979,19 @@
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:13" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="199"/>
+      <c r="B24" s="67">
+        <v>45404</v>
+      </c>
+      <c r="C24" s="214" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="161"/>
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
       <c r="K24" s="26"/>
@@ -3946,8 +4004,8 @@
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="199"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="161"/>
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
       <c r="K25" s="26"/>
@@ -3960,8 +4018,8 @@
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="199"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="161"/>
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
       <c r="K26" s="26"/>
@@ -3974,8 +4032,8 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="199"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="161"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
       <c r="K27" s="26"/>
@@ -3988,8 +4046,8 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="163"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
       <c r="K28" s="30"/>
@@ -4033,47 +4091,63 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="213" t="str">
+      <c r="C31" s="164" t="str">
         <f>'Asignación de Proyecto'!K34</f>
         <v>I.T.I Erick Mireles Merchant</v>
       </c>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="I31" s="209" t="s">
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="I31" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="209"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
     </row>
     <row r="32" spans="2:13" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="210" t="s">
+      <c r="C32" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="210"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="210"/>
-      <c r="I32" s="210" t="s">
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="I32" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="210"/>
-      <c r="K32" s="210"/>
-      <c r="L32" s="210"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
     </row>
     <row r="33" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C31:F31"/>
+  <mergeCells count="50">
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:M14"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:F16"/>
@@ -4087,28 +4161,18 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
